--- a/given_data/variablecosts.xlsx
+++ b/given_data/variablecosts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tuenl-my.sharepoint.com/personal/l_martin_tue_nl/Documents/Transportation Teaching/1CM110/2022/Block 2/Assignment/Shared Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0012dffc44a574/Documents/Masters/TUe/Q2/Descion Making/Assignment/Assignment 2/DecisionMaking_Assignment_3/given_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4DB114E441178AC67DF4DEAE53CB7E683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CFDD675-335C-415F-8248-3BEEBBEA1F81}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_AD4DB114E441178AC67DF4DEAE53CB7E683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0A5BE2-6040-47AF-9556-BFC6F8C7FD61}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1755" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -111,11 +111,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -128,6 +129,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="P4" sqref="P4:Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -445,579 +450,613 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>1.7112205855247884</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>1.9406467017226625</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>0.47550785986557625</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2.7900590776706302</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.60891278671739291</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>1.7592639643637733</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.44526437770929284</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="1">
         <v>3.1662037611262117</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="1">
         <v>2.1820639911530293</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="1">
         <v>1.2006068543286261</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="1">
         <v>2.1808778418034889</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="1">
         <v>1.9577157928849236</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.7112205855247884</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.80740870891021432</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1.9636516973497731</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>1.1669324236497016</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>1.953046273722141</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>0.54916350654375845</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>1.3894377452297488</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="1">
         <v>1.4554720433822501</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>1.4668696123139853</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>0.97385545174811627</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>1.2007794655171979</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>1.2615461369621654</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>1.9406467017226625</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>0.80740870891021432</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>2.0061793304986391</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.99619311096297791</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>1.9282111772582384</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>1.3565689438477238</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>1.511895814843526</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1">
         <v>1.6416248917132892</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>0.67463591253892075</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>1.6579755418911484</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>0.39425156305627507</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>2.0668494778230957</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>0.47550785986557625</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1.9636516973497731</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>2.0061793304986391</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <v>2.9403805835914159</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0.16989224819100779</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>2.1157832152769593</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.57519723396136513</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>3.4048275607187382</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>2.0963517560926395</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>1.627256858814417</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>2.1689354384172668</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>2.3972371847857552</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>2.7900590776706302</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1.1669324236497016</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.99619311096297791</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2.9403805835914159</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>2.8829376118029657</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="1">
         <v>1.5371160830022128</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>2.4002646418969267</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>0.75351642278250641</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="1">
         <v>1.4315387386488418</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="1">
         <v>2.1247320648681489</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="1">
         <v>1.1056044578229069</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="1">
         <v>2.1841687036308937</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.60891278671739291</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>1.953046273722141</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>1.9282111772582384</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>0.16989224819100779</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>2.8829376118029657</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>2.1483952686521639</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.59048505692052033</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>3.3778025361471813</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>1.9728312092941154</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>1.7023158790673403</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>2.0653470600189827</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>2.4754712133539973</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1.7592639643637733</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>0.54916350654375845</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.3565689438477238</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>2.1157832152769593</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>1.5371160830022128</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>2.1483952686521639</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
         <v>1.557913207722244</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1">
         <v>1.5742917977247863</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>2.0123775527034229</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>0.68227644484090288</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>1.7498494758901264</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>0.71613729434118534</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>0.44526437770929284</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1.3894377452297488</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>1.511895814843526</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>0.57519723396136513</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>2.4002646418969267</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0.59048505692052033</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>1.557913207722244</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
         <v>2.8352781746417159</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>1.7380554322335706</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>1.14366406807368</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>1.7377873513627535</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>1.913783571420195</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>3.1662037611262117</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>1.4554720433822501</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1.6416248917132892</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>3.4048275607187382</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.75351642278250641</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>3.3778025361471813</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>1.5742917977247863</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>2.8352781746417159</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
         <v>2.1658997449520281</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>2.2513414620176486</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>1.8316022911739098</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>2.0411177124175692</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>2.1820639911530293</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>1.4668696123139853</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>0.67463591253892075</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>2.0963517560926395</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>1.4315387386488418</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>1.9728312092941154</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>2.0123775527034229</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>1.7380554322335706</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1">
         <v>2.1658997449520281</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
         <v>2.2168365812872297</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>0.33831154612164904</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>2.7115200425872126</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>1.2006068543286261</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>0.97385545174811627</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>1.6579755418911484</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1.627256858814417</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>2.1247320648681489</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>1.7023158790673403</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>0.68227644484090288</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>1.14366406807368</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="1">
         <v>2.2513414620176486</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="1">
         <v>2.2168365812872297</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>2.0348348939345375</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="1">
         <v>0.77326571188140092</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>2.1808778418034889</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>1.2007794655171979</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>0.39425156305627507</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>2.1689354384172668</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>1.1056044578229069</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>2.0653470600189827</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>1.7498494758901264</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>1.7377873513627535</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="1">
         <v>1.8316022911739098</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>0.33831154612164904</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>2.0348348939345375</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>2.4609963143287956</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>1.9577157928849236</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>1.2615461369621654</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>2.0668494778230957</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>2.3972371847857552</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>2.1841687036308937</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>2.4754712133539973</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>0.71613729434118534</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>1.913783571420195</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="1">
         <v>2.0411177124175692</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="1">
         <v>2.7115200425872126</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="1">
         <v>0.77326571188140092</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="1">
         <v>2.4609963143287956</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B2:N14">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5:Q9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/given_data/variablecosts.xlsx
+++ b/given_data/variablecosts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4c0012dffc44a574/Documents/Masters/TUe/Q2/Descion Making/Assignment/Assignment 2/DecisionMaking_Assignment_3/given_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_AD4DB114E441178AC67DF4DEAE53CB7E683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0A5BE2-6040-47AF-9556-BFC6F8C7FD61}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_AD4DB114E441178AC67DF4DEAE53CB7E683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC77DA33-B0F8-42B3-95D2-65B48920AFE2}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,10 +129,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,9 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:Q9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
